--- a/MetaData/MIA_TabithaRuecker.xlsx
+++ b/MetaData/MIA_TabithaRuecker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tabitharucker/Desktop/PhDEpiExp/NGS/RNAseq embryonal set/Data tables thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A50514-807D-4A4D-AB0C-F59AAE485E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185CB63-C77D-B147-89FC-6F26C6D59A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{36F865E8-0F0A-974B-9E9C-3AE47B84224E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="455">
   <si>
     <t>NA</t>
   </si>
@@ -1356,33 +1356,12 @@
     <t>for the project "Upper layer neurons develop along environmental signals"</t>
   </si>
   <si>
-    <t>Sheet 7</t>
-  </si>
-  <si>
-    <t>Sheet 1</t>
-  </si>
-  <si>
-    <t>Sheet 2</t>
-  </si>
-  <si>
-    <t>Sheet 3</t>
-  </si>
-  <si>
-    <t>Sheet 4</t>
-  </si>
-  <si>
     <t>Weight_All_MIAanimals_FACS</t>
   </si>
   <si>
-    <t>Sheet 5</t>
-  </si>
-  <si>
     <t>MIAanimalsCytokineLevels</t>
   </si>
   <si>
-    <t>Sheet 6</t>
-  </si>
-  <si>
     <t>OrganWeight_CytokineMIA</t>
   </si>
   <si>
@@ -1404,7 +1383,31 @@
     <t>This ExcelFile contains all metaData used in MIA experiments</t>
   </si>
   <si>
-    <t>Corresponding to Suppl. Fig. … in Manuscript</t>
+    <t>Sheet 1:</t>
+  </si>
+  <si>
+    <t>Sheet 2:</t>
+  </si>
+  <si>
+    <t>Sheet 3:</t>
+  </si>
+  <si>
+    <t>Sheet 4:</t>
+  </si>
+  <si>
+    <t>Sheet 5:</t>
+  </si>
+  <si>
+    <t>Sheet 6:</t>
+  </si>
+  <si>
+    <t>Sheet 7:</t>
+  </si>
+  <si>
+    <t>Corresponding to Fig. 29 in manuscript</t>
+  </si>
+  <si>
+    <t>Corresponding to Suppl. Fig. 10 in manuscript</t>
   </si>
 </sst>
 </file>
@@ -1700,9 +1703,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1720,6 +1720,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2721,9 +2724,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2761,7 +2764,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2867,7 +2870,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3009,7 +3012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3019,111 +3022,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEEBE7-C825-0C40-9542-D029A3F3F760}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="B9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="B10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="B13" t="s">
         <v>443</v>
-      </c>
-      <c r="B11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="B12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="B13" t="s">
-        <v>450</v>
       </c>
       <c r="C13" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="46"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="46"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -8764,15 +8770,15 @@
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
@@ -10566,96 +10572,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="32" t="s">
         <v>375</v>
       </c>
     </row>
@@ -13697,106 +13703,106 @@
   <sheetData>
     <row r="1" spans="1:4" ht="216" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="216" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="216" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="216" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>393</v>
       </c>
     </row>
@@ -13818,7 +13824,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="12" width="10.83203125" style="36"/>
+    <col min="5" max="12" width="10.83203125" style="35"/>
     <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -13835,28 +13841,28 @@
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>414</v>
       </c>
     </row>
@@ -13873,28 +13879,28 @@
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <v>23.61</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="35">
         <v>5.78</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <v>10.71</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <v>11.85</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="35">
         <v>6.16</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="35">
         <v>401.86</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="35">
         <v>343.46</v>
       </c>
     </row>
@@ -13911,28 +13917,28 @@
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>4.84</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="35">
         <v>107.65</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="35">
         <v>36.369999999999997</v>
       </c>
     </row>
@@ -13949,28 +13955,28 @@
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <v>48.29</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <v>6.85</v>
       </c>
     </row>
@@ -13987,28 +13993,28 @@
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>21.82</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>6</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>7.38</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <v>23.36</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <v>4.53</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="35">
         <v>292.33</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="35">
         <v>324.06</v>
       </c>
     </row>
@@ -14025,28 +14031,28 @@
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>37.619999999999997</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>9.5</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>11.2</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>38.950000000000003</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>9.56</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <v>486.56</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="35">
         <v>457.18</v>
       </c>
     </row>
@@ -14063,28 +14069,28 @@
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>32.520000000000003</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>7.94</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>12.55</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>12.9</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <v>8.9700000000000006</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="35">
         <v>314.70999999999998</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="35">
         <v>86.72</v>
       </c>
     </row>
@@ -14101,28 +14107,28 @@
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>40.94</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>6.83</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>10.59</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>13.96</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <v>0.76</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="35">
         <v>230.21</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="35">
         <v>77.959999999999994</v>
       </c>
     </row>
@@ -14139,28 +14145,28 @@
       <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>29.72</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>6.51</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>6.26</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>8.2899999999999991</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <v>15.45</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="35">
         <v>223.51</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="35">
         <v>401.96</v>
       </c>
     </row>
@@ -14177,28 +14183,28 @@
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>15.56</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>3.04</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>5.41</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="35">
         <v>188.24</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="35">
         <v>222.98</v>
       </c>
     </row>
@@ -14215,66 +14221,66 @@
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>69.930000000000007</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>6.14</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>13.34</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>13.26</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <v>11.34</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>355.86</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <v>460.46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>21181</v>
       </c>
-      <c r="C12" s="37">
-        <v>1</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <v>123.99</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>220.29</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>18.14</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>10.6</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <v>47.25</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43">
         <v>51.91</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <v>2726.69</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="37">
         <v>1825.67</v>
       </c>
     </row>
@@ -14291,28 +14297,28 @@
       <c r="D13" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>56.03</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>15.63</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>16.2</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>30.93</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <v>3.39</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="35">
         <v>36.909999999999997</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="35">
         <v>97.7</v>
       </c>
     </row>
@@ -14329,28 +14335,28 @@
       <c r="D14" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <v>55.13</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>11.34</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <v>16.2</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>53.32</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>7.55</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="35">
         <v>327.97</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="35">
         <v>269.88</v>
       </c>
     </row>
@@ -14367,66 +14373,66 @@
       <c r="D15" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>35.58</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>4.91</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>16.559999999999999</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <v>35.369999999999997</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <v>10.72</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="35">
         <v>194.22</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="35">
         <v>206.23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="39">
         <v>29599</v>
       </c>
-      <c r="C16" s="40">
-        <v>1</v>
-      </c>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="39">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>227.35</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="40">
         <v>20.09</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="42">
         <v>29.23</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="40">
         <v>32.049999999999997</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="40">
         <v>134.51</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <v>65.31</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="40">
         <v>566.59</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="40">
         <v>1334.11</v>
       </c>
     </row>
@@ -14443,28 +14449,28 @@
       <c r="D17" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <v>1.66</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <v>19.809999999999999</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <v>33.68</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="35">
         <v>10.98</v>
       </c>
     </row>
@@ -14481,28 +14487,28 @@
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <v>11.45</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <v>8.17</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="35">
         <v>7746.66</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="35">
         <v>80.81</v>
       </c>
     </row>
@@ -14519,28 +14525,28 @@
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>8.24</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>6.58</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>5.44</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>2.36</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <v>870.89</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="35">
         <v>87.57</v>
       </c>
     </row>
@@ -14557,28 +14563,28 @@
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="35">
         <v>9.85</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>10.78</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>8.41</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="35">
         <v>3.02</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="35">
         <v>2102.85</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="35">
         <v>104.52</v>
       </c>
     </row>
@@ -14595,28 +14601,28 @@
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="35">
         <v>9.85</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="35">
         <v>1294.27</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="35">
         <v>94.34</v>
       </c>
     </row>
@@ -14633,28 +14639,28 @@
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <v>10.92</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <v>12.85</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="35">
         <v>3.27</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="35">
         <v>1233.93</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="35">
         <v>82.5</v>
       </c>
     </row>
@@ -14671,28 +14677,28 @@
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="35">
         <v>15.69</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <v>7.11</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="35">
         <v>2.86</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="35">
         <v>1067.1099999999999</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="35">
         <v>58.95</v>
       </c>
     </row>
@@ -14709,28 +14715,28 @@
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>17.27</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="35">
         <v>21</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="35">
         <v>17.27</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="35">
         <v>4.3499999999999996</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="35">
         <v>847.62</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="35">
         <v>111.32</v>
       </c>
     </row>
@@ -14747,28 +14753,28 @@
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="35">
         <v>9.85</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="35">
         <v>7.64</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="35">
         <v>2.69</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="35">
         <v>6611.41</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="35">
         <v>107.92</v>
       </c>
     </row>
@@ -14785,28 +14791,28 @@
       <c r="D26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="35">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="35">
         <v>6.05</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="35">
         <v>4004.5</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="35">
         <v>69.02</v>
       </c>
     </row>
@@ -14823,28 +14829,28 @@
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="35">
         <v>6.62</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="35">
         <v>7.64</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="35">
         <v>3.02</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="35">
         <v>528.46</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="35">
         <v>94.34</v>
       </c>
     </row>
@@ -14861,28 +14867,28 @@
       <c r="D28" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="35">
         <v>7.7</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="35">
         <v>6.85</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="36" t="s">
+      <c r="I28" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="35">
         <v>3.6</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="35">
         <v>760.96</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="35">
         <v>70.7</v>
       </c>
     </row>
@@ -14899,28 +14905,28 @@
       <c r="D29" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="35">
         <v>9.85</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="35">
         <v>2451.94</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="35">
         <v>84.19</v>
       </c>
     </row>
@@ -14937,28 +14943,28 @@
       <c r="D30" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="35">
         <v>13.05</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="35">
         <v>6.58</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="35">
         <v>5905.79</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="35">
         <v>47.26</v>
       </c>
     </row>
@@ -14975,66 +14981,66 @@
       <c r="D31" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="35">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="35">
         <v>6.58</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="36" t="s">
+      <c r="J31" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="35">
         <v>1865.28</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="35">
         <v>70.7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+    <row r="32" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>29599</v>
       </c>
-      <c r="C32" s="37">
-        <v>1</v>
-      </c>
-      <c r="D32" s="37" t="s">
+      <c r="C32" s="36">
+        <v>1</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="37">
         <v>7.64</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="37">
         <v>7.34</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="37">
         <v>1395.76</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="37">
         <v>107.92</v>
       </c>
     </row>
@@ -15051,28 +15057,28 @@
       <c r="D33" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="35">
         <v>5.54</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="36" t="s">
+      <c r="J33" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="35">
         <v>728.88</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="35">
         <v>53.94</v>
       </c>
     </row>
@@ -15089,28 +15095,28 @@
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="35">
         <v>13.58</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="35">
         <v>12.34</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="35">
         <v>27.35</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="35">
         <v>1255.3</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="35">
         <v>94.34</v>
       </c>
     </row>
@@ -15127,28 +15133,28 @@
       <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="35">
         <v>10.92</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="35">
         <v>10.78</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="35">
         <v>808.5</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="35">
         <v>107.92</v>
       </c>
     </row>
@@ -15165,28 +15171,28 @@
       <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="35">
         <v>11.98</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="35">
         <v>7.64</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="J36" s="36" t="s">
+      <c r="J36" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="35">
         <v>1147.58</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="35">
         <v>74.069999999999993</v>
       </c>
     </row>
@@ -15203,28 +15209,28 @@
       <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="35">
         <v>9.32</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <v>7.11</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="J37" s="36" t="s">
+      <c r="J37" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="35">
         <v>1388.81</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="35">
         <v>77.44</v>
       </c>
     </row>
@@ -15241,28 +15247,28 @@
       <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="35">
         <v>7.7</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="35">
         <v>11.3</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="J38" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="35">
         <v>1353.97</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="35">
         <v>87.57</v>
       </c>
     </row>
@@ -15279,28 +15285,28 @@
       <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="35">
         <v>10.92</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="35">
         <v>6.85</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="H39" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="I39" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="35">
         <v>3.1</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="35">
         <v>3695.87</v>
       </c>
-      <c r="L39" s="36">
+      <c r="L39" s="35">
         <v>62.31</v>
       </c>
     </row>
@@ -15317,28 +15323,28 @@
       <c r="D40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="35">
         <v>6.62</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J40" s="36" t="s">
+      <c r="J40" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="35">
         <v>2371.89</v>
       </c>
-      <c r="L40" s="36">
+      <c r="L40" s="35">
         <v>60.63</v>
       </c>
     </row>
@@ -15355,28 +15361,28 @@
       <c r="D41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="35">
         <v>5.54</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="35">
         <v>6.58</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="J41" s="36" t="s">
+      <c r="J41" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="35">
         <v>1753.92</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="35">
         <v>80.81</v>
       </c>
     </row>
@@ -15393,28 +15399,28 @@
       <c r="D42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="35">
         <v>9.74</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="36" t="s">
+      <c r="I42" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J42" s="36" t="s">
+      <c r="J42" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="35">
         <v>939.87</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L42" s="35">
         <v>94.34</v>
       </c>
     </row>
@@ -15431,28 +15437,28 @@
       <c r="D43" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="35">
         <v>10.92</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="35">
         <v>4.68</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="35">
         <v>2285.0500000000002</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="35">
         <v>50.6</v>
       </c>
     </row>
@@ -15469,28 +15475,28 @@
       <c r="D44" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="35">
         <v>5.54</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="36" t="s">
+      <c r="H44" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I44" s="36" t="s">
+      <c r="I44" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="J44" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="35">
         <v>3565.39</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="35">
         <v>67.34</v>
       </c>
     </row>
@@ -15507,28 +15513,28 @@
       <c r="D45" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="35">
         <v>7.7</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I45" s="36" t="s">
+      <c r="I45" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J45" s="36" t="s">
+      <c r="J45" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="35">
         <v>700.54</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="35">
         <v>77.44</v>
       </c>
     </row>
@@ -15545,28 +15551,28 @@
       <c r="D46" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="35">
         <v>7.7</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="35">
         <v>7.11</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="36" t="s">
+      <c r="I46" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J46" s="36" t="s">
+      <c r="J46" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="35">
         <v>804.56</v>
       </c>
-      <c r="L46" s="36">
+      <c r="L46" s="35">
         <v>74.069999999999993</v>
       </c>
     </row>
@@ -15583,28 +15589,28 @@
       <c r="D47" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="35">
         <v>6.62</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="35">
         <v>6.05</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="36" t="s">
+      <c r="I47" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J47" s="36" t="s">
+      <c r="J47" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="35">
         <v>720.81</v>
       </c>
-      <c r="L47" s="36">
+      <c r="L47" s="35">
         <v>53.94</v>
       </c>
     </row>
@@ -15621,28 +15627,28 @@
       <c r="D48" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="35">
         <v>7.38</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="36" t="s">
+      <c r="J48" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="35">
         <v>1968.78</v>
       </c>
-      <c r="L48" s="36">
+      <c r="L48" s="35">
         <v>80.81</v>
       </c>
     </row>
@@ -15659,28 +15665,28 @@
       <c r="D49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I49" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="36" t="s">
+      <c r="J49" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="35">
         <v>1074.48</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="35">
         <v>63.98</v>
       </c>
     </row>
@@ -15697,28 +15703,28 @@
       <c r="D50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I50" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="36" t="s">
+      <c r="J50" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50" s="35">
         <v>312.41000000000003</v>
       </c>
-      <c r="L50" s="36">
+      <c r="L50" s="35">
         <v>47.26</v>
       </c>
     </row>
@@ -15735,28 +15741,28 @@
       <c r="D51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="35">
         <v>10.92</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="35">
         <v>7.64</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I51" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J51" s="36" t="s">
+      <c r="J51" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51" s="35">
         <v>1790.12</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L51" s="35">
         <v>90.95</v>
       </c>
     </row>
@@ -15773,28 +15779,28 @@
       <c r="D52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="35">
         <v>9.32</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="35">
         <v>6.05</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="H52" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="I52" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J52" s="36" t="s">
+      <c r="J52" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="35">
         <v>1118.47</v>
       </c>
-      <c r="L52" s="36">
+      <c r="L52" s="35">
         <v>60.63</v>
       </c>
     </row>
@@ -15811,28 +15817,28 @@
       <c r="D53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="36" t="s">
+      <c r="I53" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J53" s="36" t="s">
+      <c r="J53" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="35">
         <v>1339.98</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="35">
         <v>53.94</v>
       </c>
     </row>
@@ -15849,28 +15855,28 @@
       <c r="D54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="35">
         <v>6.08</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G54" s="35">
         <v>7.11</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I54" s="36" t="s">
+      <c r="I54" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J54" s="36" t="s">
+      <c r="J54" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="35">
         <v>1067.1099999999999</v>
       </c>
-      <c r="L54" s="36">
+      <c r="L54" s="35">
         <v>43.93</v>
       </c>
     </row>
@@ -15887,28 +15893,28 @@
       <c r="D55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="35">
         <v>7.7</v>
       </c>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="35">
         <v>7.64</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I55" s="36" t="s">
+      <c r="I55" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J55" s="36" t="s">
+      <c r="J55" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="35">
         <v>768.93</v>
       </c>
-      <c r="L55" s="36">
+      <c r="L55" s="35">
         <v>87.57</v>
       </c>
     </row>
@@ -15925,28 +15931,28 @@
       <c r="D56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="35">
         <v>5.54</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="35">
         <v>6.31</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H56" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I56" s="36" t="s">
+      <c r="I56" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="36" t="s">
+      <c r="J56" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K56" s="36">
+      <c r="K56" s="35">
         <v>792.73</v>
       </c>
-      <c r="L56" s="36">
+      <c r="L56" s="35">
         <v>60.63</v>
       </c>
     </row>
@@ -15963,28 +15969,28 @@
       <c r="D57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="35">
         <v>6.58</v>
       </c>
-      <c r="H57" s="36" t="s">
+      <c r="H57" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I57" s="36" t="s">
+      <c r="I57" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J57" s="36" t="s">
+      <c r="J57" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="35">
         <v>3474.09</v>
       </c>
-      <c r="L57" s="36">
+      <c r="L57" s="35">
         <v>57.28</v>
       </c>
     </row>
@@ -16001,28 +16007,28 @@
       <c r="D58" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H58" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I58" s="36" t="s">
+      <c r="I58" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="36" t="s">
+      <c r="J58" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="K58" s="36">
+      <c r="K58" s="35">
         <v>1111.17</v>
       </c>
-      <c r="L58" s="36">
+      <c r="L58" s="35">
         <v>50.6</v>
       </c>
     </row>
@@ -16039,28 +16045,28 @@
       <c r="D59" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G59" s="36" t="s">
+      <c r="G59" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H59" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="I59" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J59" s="36" t="s">
+      <c r="J59" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K59" s="36">
+      <c r="K59" s="35">
         <v>1566.98</v>
       </c>
-      <c r="L59" s="36">
+      <c r="L59" s="35">
         <v>74.069999999999993</v>
       </c>
     </row>
@@ -16077,28 +16083,28 @@
       <c r="D60" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E60" s="36">
+      <c r="E60" s="35">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G60" s="36" t="s">
+      <c r="G60" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H60" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J60" s="36" t="s">
+      <c r="J60" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="35">
         <v>909.36</v>
       </c>
-      <c r="L60" s="36">
+      <c r="L60" s="35">
         <v>53.94</v>
       </c>
     </row>
@@ -16115,28 +16121,28 @@
       <c r="D61" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="35">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="35">
         <v>7.64</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H61" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I61" s="36" t="s">
+      <c r="I61" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J61" s="36" t="s">
+      <c r="J61" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="K61" s="36">
+      <c r="K61" s="35">
         <v>1140.32</v>
       </c>
-      <c r="L61" s="36">
+      <c r="L61" s="35">
         <v>53.94</v>
       </c>
     </row>
@@ -16153,28 +16159,28 @@
       <c r="D62" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="36" t="s">
+      <c r="G62" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="36" t="s">
+      <c r="H62" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I62" s="36" t="s">
+      <c r="I62" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J62" s="36" t="s">
+      <c r="J62" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K62" s="35">
         <v>1461.35</v>
       </c>
-      <c r="L62" s="36">
+      <c r="L62" s="35">
         <v>57.28</v>
       </c>
     </row>
@@ -16191,28 +16197,28 @@
       <c r="D63" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="36" t="s">
+      <c r="G63" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H63" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I63" s="36" t="s">
+      <c r="I63" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J63" s="36" t="s">
+      <c r="J63" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K63" s="36">
+      <c r="K63" s="35">
         <v>716.77</v>
       </c>
-      <c r="L63" s="36">
+      <c r="L63" s="35">
         <v>53.94</v>
       </c>
     </row>
@@ -16229,28 +16235,28 @@
       <c r="D64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="35">
         <v>5.54</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G64" s="36">
+      <c r="G64" s="35">
         <v>6.05</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="35">
         <v>11.89</v>
       </c>
-      <c r="I64" s="36" t="s">
+      <c r="I64" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="36" t="s">
+      <c r="J64" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K64" s="36">
+      <c r="K64" s="35">
         <v>1691.02</v>
       </c>
-      <c r="L64" s="36">
+      <c r="L64" s="35">
         <v>53.94</v>
       </c>
     </row>
@@ -16267,28 +16273,28 @@
       <c r="D65" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="35">
         <v>8.24</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="36">
+      <c r="G65" s="35">
         <v>11.82</v>
       </c>
-      <c r="H65" s="36" t="s">
+      <c r="H65" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I65" s="36" t="s">
+      <c r="I65" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J65" s="36" t="s">
+      <c r="J65" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K65" s="36">
+      <c r="K65" s="35">
         <v>977.68</v>
       </c>
-      <c r="L65" s="36">
+      <c r="L65" s="35">
         <v>84.19</v>
       </c>
     </row>
@@ -16305,28 +16311,28 @@
       <c r="D66" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="35">
         <v>6.62</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G66" s="36" t="s">
+      <c r="G66" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H66" s="36">
+      <c r="H66" s="35">
         <v>5.93</v>
       </c>
-      <c r="I66" s="36" t="s">
+      <c r="I66" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J66" s="36" t="s">
+      <c r="J66" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K66" s="36">
+      <c r="K66" s="35">
         <v>5323.67</v>
       </c>
-      <c r="L66" s="36">
+      <c r="L66" s="35">
         <v>57.28</v>
       </c>
     </row>
@@ -16343,28 +16349,28 @@
       <c r="D67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="35">
         <v>22.52</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G67" s="36">
+      <c r="G67" s="35">
         <v>15.42</v>
       </c>
-      <c r="H67" s="36" t="s">
+      <c r="H67" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I67" s="36" t="s">
+      <c r="I67" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J67" s="36">
+      <c r="J67" s="35">
         <v>7.97</v>
       </c>
-      <c r="K67" s="36" t="s">
+      <c r="K67" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="L67" s="36">
+      <c r="L67" s="35">
         <v>133.49</v>
       </c>
     </row>
@@ -16381,28 +16387,28 @@
       <c r="D68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="35">
         <v>7.7</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G68" s="36">
+      <c r="G68" s="35">
         <v>7.11</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I68" s="36" t="s">
+      <c r="I68" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J68" s="36">
+      <c r="J68" s="35">
         <v>3.1</v>
       </c>
-      <c r="K68" s="36" t="s">
+      <c r="K68" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L68" s="36">
+      <c r="L68" s="35">
         <v>80.81</v>
       </c>
     </row>
@@ -16419,28 +16425,28 @@
       <c r="D69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G69" s="36" t="s">
+      <c r="G69" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H69" s="36" t="s">
+      <c r="H69" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="36" t="s">
+      <c r="I69" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J69" s="36">
+      <c r="J69" s="35">
         <v>3.19</v>
       </c>
-      <c r="K69" s="36" t="s">
+      <c r="K69" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L69" s="36">
+      <c r="L69" s="35">
         <v>75.75</v>
       </c>
     </row>
@@ -16457,28 +16463,28 @@
       <c r="D70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="35">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F70" s="36" t="s">
+      <c r="F70" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G70" s="36">
+      <c r="G70" s="35">
         <v>7.11</v>
       </c>
-      <c r="H70" s="36" t="s">
+      <c r="H70" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I70" s="36" t="s">
+      <c r="I70" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J70" s="36">
+      <c r="J70" s="35">
         <v>5.44</v>
       </c>
-      <c r="K70" s="36" t="s">
+      <c r="K70" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="L70" s="36">
+      <c r="L70" s="35">
         <v>94.34</v>
       </c>
     </row>
@@ -16495,28 +16501,28 @@
       <c r="D71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="36">
+      <c r="E71" s="35">
         <v>7.7</v>
       </c>
-      <c r="F71" s="36" t="s">
+      <c r="F71" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G71" s="36">
+      <c r="G71" s="35">
         <v>6.85</v>
       </c>
-      <c r="H71" s="36" t="s">
+      <c r="H71" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I71" s="36" t="s">
+      <c r="I71" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J71" s="36">
+      <c r="J71" s="35">
         <v>5.27</v>
       </c>
-      <c r="K71" s="36" t="s">
+      <c r="K71" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L71" s="36">
+      <c r="L71" s="35">
         <v>80.81</v>
       </c>
     </row>
@@ -16533,28 +16539,28 @@
       <c r="D72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="35">
         <v>8.7799999999999994</v>
       </c>
-      <c r="F72" s="36" t="s">
+      <c r="F72" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="36">
+      <c r="G72" s="35">
         <v>7.64</v>
       </c>
-      <c r="H72" s="36" t="s">
+      <c r="H72" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I72" s="36" t="s">
+      <c r="I72" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J72" s="36">
+      <c r="J72" s="35">
         <v>5.18</v>
       </c>
-      <c r="K72" s="36" t="s">
+      <c r="K72" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L72" s="36">
+      <c r="L72" s="35">
         <v>80.81</v>
       </c>
     </row>
@@ -16571,28 +16577,28 @@
       <c r="D73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="36">
+      <c r="E73" s="35">
         <v>5.54</v>
       </c>
-      <c r="F73" s="36" t="s">
+      <c r="F73" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="G73" s="36" t="s">
+      <c r="G73" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="36" t="s">
+      <c r="H73" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I73" s="36" t="s">
+      <c r="I73" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J73" s="36">
+      <c r="J73" s="35">
         <v>5.18</v>
       </c>
-      <c r="K73" s="36" t="s">
+      <c r="K73" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L73" s="36">
+      <c r="L73" s="35">
         <v>67.34</v>
       </c>
     </row>
@@ -16609,28 +16615,28 @@
       <c r="D74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="35">
         <v>9.85</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G74" s="36">
+      <c r="G74" s="35">
         <v>7.11</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="H74" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="I74" s="36" t="s">
+      <c r="I74" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J74" s="36">
+      <c r="J74" s="35">
         <v>2.5299999999999998</v>
       </c>
-      <c r="K74" s="36" t="s">
+      <c r="K74" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L74" s="36">
+      <c r="L74" s="35">
         <v>90.95</v>
       </c>
     </row>
@@ -16647,28 +16653,28 @@
       <c r="D75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F75" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="G75" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H75" s="36" t="s">
+      <c r="H75" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I75" s="36" t="s">
+      <c r="I75" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J75" s="36">
+      <c r="J75" s="35">
         <v>3.93</v>
       </c>
-      <c r="K75" s="36" t="s">
+      <c r="K75" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L75" s="36">
+      <c r="L75" s="35">
         <v>87.57</v>
       </c>
     </row>
@@ -16685,28 +16691,28 @@
       <c r="D76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="36">
+      <c r="E76" s="35">
         <v>7.7</v>
       </c>
-      <c r="F76" s="36" t="s">
+      <c r="F76" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G76" s="36">
+      <c r="G76" s="35">
         <v>7.11</v>
       </c>
-      <c r="H76" s="36" t="s">
+      <c r="H76" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I76" s="36" t="s">
+      <c r="I76" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J76" s="36">
+      <c r="J76" s="35">
         <v>3.19</v>
       </c>
-      <c r="K76" s="36" t="s">
+      <c r="K76" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L76" s="36">
+      <c r="L76" s="35">
         <v>80.81</v>
       </c>
     </row>
@@ -16723,28 +16729,28 @@
       <c r="D77" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E77" s="36">
+      <c r="E77" s="35">
         <v>9.32</v>
       </c>
-      <c r="F77" s="36" t="s">
+      <c r="F77" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G77" s="36" t="s">
+      <c r="G77" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H77" s="36" t="s">
+      <c r="H77" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="36" t="s">
+      <c r="I77" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J77" s="36">
+      <c r="J77" s="35">
         <v>4.68</v>
       </c>
-      <c r="K77" s="36" t="s">
+      <c r="K77" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L77" s="36">
+      <c r="L77" s="35">
         <v>87.57</v>
       </c>
     </row>
@@ -16761,28 +16767,28 @@
       <c r="D78" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E78" s="36">
+      <c r="E78" s="35">
         <v>5.54</v>
       </c>
-      <c r="F78" s="36" t="s">
+      <c r="F78" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G78" s="36" t="s">
+      <c r="G78" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H78" s="36" t="s">
+      <c r="H78" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I78" s="36" t="s">
+      <c r="I78" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J78" s="36">
+      <c r="J78" s="35">
         <v>3.27</v>
       </c>
-      <c r="K78" s="36" t="s">
+      <c r="K78" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L78" s="36">
+      <c r="L78" s="35">
         <v>80.81</v>
       </c>
     </row>
@@ -16799,28 +16805,28 @@
       <c r="D79" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E79" s="36">
+      <c r="E79" s="35">
         <v>9.85</v>
       </c>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G79" s="36">
+      <c r="G79" s="35">
         <v>6.58</v>
       </c>
-      <c r="H79" s="36" t="s">
+      <c r="H79" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I79" s="36" t="s">
+      <c r="I79" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J79" s="36">
+      <c r="J79" s="35">
         <v>6.45</v>
       </c>
-      <c r="K79" s="36" t="s">
+      <c r="K79" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L79" s="36">
+      <c r="L79" s="35">
         <v>101.12</v>
       </c>
     </row>
